--- a/vectorstore/table_references/table1-page8.xlsx
+++ b/vectorstore/table_references/table1-page8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,21 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Version</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>I rotate my meetings
-within a small proximity
-on a weekly basis</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>If your meetings are in sites within 10 square
-miles of each other, they would be classed as an
-ordinary commute and cannot be claimed for.</t>
+          <t>Detail</t>
         </is>
       </c>
     </row>
@@ -458,26 +454,13 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>My meetings are only for
-a couple of hours with a
-supplier each week.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>This would be classed as your normal daily
-commute due to your weekly visit. It is based
-on the regularity of the visit rather than the
-length of time that you are there.</t>
-        </is>
-      </c>
+          <t>26 June 2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -485,27 +468,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>* A normal place of work or ordinary commute is a site that you visit at least once a week. It is
-p ossible to have multiple sites that are classed as an ordinary commute or usual work place.</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>* Any breach of policy could lead to the colleague being treated as receiving free fuel in addition to
-being taxed for the car.
-Free fuel BiK is calculated, currently by: Your car’s CO2 emissions x the fuel benefit charge (currently
-£ 25,300) x your income tax bracket.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Updated clarification on Routine Appointments and Hospital Appointments</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
